--- a/resources/槽极小纬度校验进度记录.xlsx
+++ b/resources/槽极小纬度校验进度记录.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="49">
   <si>
     <t>glon</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>status</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>18-19</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -102,6 +98,90 @@
   </si>
   <si>
     <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2014.9-</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>done</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sorted tec_profile_gdlat.csv</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -141,7 +221,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -165,6 +245,14 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -174,7 +262,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -239,26 +327,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -278,24 +346,11 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -309,52 +364,58 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -637,512 +698,1083 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J44"/>
+  <dimension ref="B1:J61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="4" width="8.6640625" style="1"/>
-    <col min="5" max="9" width="8.6640625" style="2"/>
-    <col min="10" max="16384" width="8.6640625" style="1"/>
+    <col min="5" max="10" width="8.6640625" style="2"/>
+    <col min="11" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B1" s="11" t="s">
+      <c r="E1" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+    </row>
+    <row r="2" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C3" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="19" t="s">
+      <c r="D3" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="17"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
+      <c r="J3" s="17"/>
+    </row>
+    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="3">
+        <v>-2017.9</v>
+      </c>
+      <c r="E4" s="4">
+        <v>2016</v>
+      </c>
+      <c r="F4" s="4">
+        <v>2015</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H4" s="12">
+        <v>-2014.8</v>
+      </c>
+      <c r="I4" s="4">
+        <v>2013</v>
+      </c>
+      <c r="J4" s="4">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B5" s="17">
+        <v>-90</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="E1" s="19"/>
-      <c r="F1" s="19"/>
-      <c r="G1" s="19"/>
-      <c r="H1" s="19"/>
-      <c r="I1" s="19"/>
-      <c r="J1" s="14" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="3">
-        <v>2017</v>
-      </c>
-      <c r="E2" s="4">
-        <v>2016</v>
-      </c>
-      <c r="F2" s="4">
-        <v>2015</v>
-      </c>
-      <c r="G2" s="4">
-        <v>2014</v>
-      </c>
-      <c r="H2" s="4">
-        <v>2013</v>
-      </c>
-      <c r="I2" s="4">
-        <v>2012</v>
-      </c>
-      <c r="J2" s="15"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="19">
-        <v>-90</v>
-      </c>
-      <c r="C3" s="9" t="s">
+      <c r="F5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B6" s="17"/>
+      <c r="C6" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="E3" s="20" t="s">
+      <c r="D6" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B7" s="17"/>
+      <c r="C7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="5"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B4" s="19"/>
-      <c r="C4" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="J4" s="5"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B5" s="19"/>
-      <c r="C5" s="9" t="s">
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="F7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B8" s="17"/>
+      <c r="C8" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="D5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>28</v>
-      </c>
-      <c r="J5" s="5"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B6" s="19"/>
-      <c r="C6" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="F6" s="4"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="4"/>
-      <c r="J6" s="6"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B7" s="19"/>
-      <c r="C7" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F7" s="4"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="4"/>
-      <c r="J7" s="6"/>
-    </row>
-    <row r="8" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="19"/>
-      <c r="C8" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="4"/>
-      <c r="G8" s="4"/>
+      <c r="D8" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="F8" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G8" s="9" t="s">
+        <v>39</v>
+      </c>
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
-      <c r="J8" s="6"/>
-    </row>
-    <row r="9" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="19"/>
-      <c r="C9" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>23</v>
-      </c>
-      <c r="F9" s="4"/>
-      <c r="G9" s="4"/>
+      <c r="J8" s="4"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B9" s="17"/>
+      <c r="C9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
-      <c r="J9" s="6"/>
+      <c r="J9" s="4"/>
     </row>
     <row r="10" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="19"/>
-      <c r="C10" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>24</v>
-      </c>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
+      <c r="B10" s="17"/>
+      <c r="C10" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D10" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F10" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="9" t="s">
+        <v>34</v>
+      </c>
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
-      <c r="J10" s="6"/>
+      <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="19"/>
-      <c r="C11" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="4"/>
-      <c r="G11" s="4"/>
+      <c r="B11" s="17"/>
+      <c r="C11" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D11" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E11" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="F11" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G11" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
-      <c r="J11" s="6"/>
+      <c r="J11" s="4"/>
     </row>
     <row r="12" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="19"/>
-      <c r="C12" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E12" s="20" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="4"/>
-      <c r="G12" s="4"/>
+      <c r="B12" s="17"/>
+      <c r="C12" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F12" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G12" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
-      <c r="J12" s="6"/>
+      <c r="J12" s="4"/>
     </row>
     <row r="13" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="19"/>
-      <c r="C13" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E13" s="20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="4"/>
-      <c r="G13" s="4"/>
+      <c r="B13" s="17"/>
+      <c r="C13" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F13" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G13" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
-      <c r="J13" s="6"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B14" s="19"/>
-      <c r="C14" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D14" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="E14" s="20" t="s">
+      <c r="J13" s="4"/>
+    </row>
+    <row r="14" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="17"/>
+      <c r="C14" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F14" s="4"/>
-      <c r="G14" s="4"/>
+      <c r="F14" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="G14" s="9" t="s">
+        <v>33</v>
+      </c>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
-      <c r="J14" s="7"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="18"/>
+      <c r="J14" s="4"/>
+    </row>
+    <row r="15" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="17"/>
+      <c r="C15" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F15" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B16" s="12">
+      <c r="B16" s="17"/>
+      <c r="C16" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D16" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="F16" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="G16" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B17" s="21"/>
+      <c r="C17" s="22"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="22"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="22"/>
+      <c r="I17" s="22"/>
+      <c r="J17" s="22"/>
+    </row>
+    <row r="18" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D18" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17"/>
+      <c r="H18" s="17"/>
+      <c r="I18" s="17"/>
+      <c r="J18" s="17"/>
+    </row>
+    <row r="19" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="16"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="12">
+        <v>2017</v>
+      </c>
+      <c r="E19" s="12">
+        <v>2016</v>
+      </c>
+      <c r="F19" s="12">
+        <v>2015</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H19" s="12">
+        <v>-2014.8</v>
+      </c>
+      <c r="I19" s="12">
+        <v>2013</v>
+      </c>
+      <c r="J19" s="12">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B20" s="16">
         <v>-120</v>
       </c>
-      <c r="C16" s="10" t="s">
+      <c r="C20" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E20" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="F20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="G20" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="I20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="J20" s="5"/>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B21" s="17"/>
+      <c r="C21" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="D16" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-      <c r="I16" s="7"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B17" s="19"/>
-      <c r="C17" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="4"/>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B18" s="19"/>
-      <c r="C18" s="9" t="s">
+      <c r="D21" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I21" s="4"/>
+      <c r="J21" s="4"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B22" s="17"/>
+      <c r="C22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="H22" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="I22" s="4"/>
+      <c r="J22" s="4"/>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B23" s="17"/>
+      <c r="C23" s="7" t="s">
         <v>10</v>
-      </c>
-      <c r="D18" s="4"/>
-      <c r="E18" s="4"/>
-      <c r="F18" s="4"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="4"/>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B19" s="19"/>
-      <c r="C19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="4"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="4"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="4"/>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B20" s="19"/>
-      <c r="C20" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="D20" s="4"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="4"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="4"/>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B21" s="19"/>
-      <c r="C21" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="D21" s="4"/>
-      <c r="E21" s="4"/>
-      <c r="F21" s="4"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="4"/>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B22" s="19"/>
-      <c r="C22" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D22" s="4"/>
-      <c r="E22" s="4"/>
-      <c r="F22" s="4"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="4"/>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B23" s="19"/>
-      <c r="C23" s="9" t="s">
-        <v>14</v>
       </c>
       <c r="D23" s="4"/>
       <c r="E23" s="4"/>
       <c r="F23" s="4"/>
-      <c r="G23" s="4"/>
+      <c r="G23" s="12"/>
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B24" s="19"/>
-      <c r="C24" s="9" t="s">
-        <v>3</v>
+      <c r="J23" s="4"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B24" s="17"/>
+      <c r="C24" s="7" t="s">
+        <v>11</v>
       </c>
       <c r="D24" s="4"/>
       <c r="E24" s="4"/>
       <c r="F24" s="4"/>
-      <c r="G24" s="4"/>
+      <c r="G24" s="12"/>
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B25" s="19"/>
-      <c r="C25" s="9" t="s">
-        <v>15</v>
+      <c r="J24" s="4"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B25" s="17"/>
+      <c r="C25" s="7" t="s">
+        <v>5</v>
       </c>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
       <c r="F25" s="4"/>
-      <c r="G25" s="4"/>
+      <c r="G25" s="12"/>
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
-    </row>
-    <row r="26" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B26" s="19"/>
-      <c r="C26" s="9" t="s">
-        <v>16</v>
+      <c r="J25" s="4"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B26" s="17"/>
+      <c r="C26" s="7" t="s">
+        <v>12</v>
       </c>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="12"/>
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B27" s="19"/>
-      <c r="C27" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D27" s="4"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="J26" s="4"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B27" s="17"/>
+      <c r="C27" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E27" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F27" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G27" s="12" t="s">
+        <v>33</v>
+      </c>
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B28" s="8"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B29" s="8"/>
-    </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B30" s="8"/>
-    </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B31" s="8"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B32" s="8"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="8"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
+      <c r="J27" s="4"/>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B28" s="17"/>
+      <c r="C28" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E28" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F28" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="G28" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="4"/>
+      <c r="J28" s="4"/>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B29" s="17"/>
+      <c r="C29" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="12"/>
+      <c r="H29" s="4"/>
+      <c r="I29" s="4"/>
+      <c r="J29" s="4"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B30" s="17"/>
+      <c r="C30" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="12"/>
+      <c r="H30" s="4"/>
+      <c r="I30" s="4"/>
+      <c r="J30" s="4"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B31" s="17"/>
+      <c r="C31" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="4"/>
+    </row>
+    <row r="32" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="6"/>
+      <c r="C32" s="14"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="6"/>
+    </row>
+    <row r="33" spans="2:10" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B33" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C33" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B34" s="16"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="12">
+        <v>-2017.2729999999999</v>
+      </c>
+      <c r="E34" s="12">
+        <v>2016</v>
+      </c>
+      <c r="F34" s="12">
+        <v>2015</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H34" s="12">
+        <v>-2014.8</v>
+      </c>
+      <c r="I34" s="12">
+        <v>2013</v>
+      </c>
+      <c r="J34" s="12">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B35" s="16">
+        <v>0</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D35" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="E35" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="13" t="s">
+        <v>43</v>
+      </c>
+      <c r="G35" s="13" t="s">
+        <v>44</v>
+      </c>
+      <c r="H35" s="11"/>
+      <c r="I35" s="11"/>
+      <c r="J35" s="11"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B36" s="17"/>
+      <c r="C36" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G36" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H36" s="12"/>
+      <c r="I36" s="12"/>
+      <c r="J36" s="12"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B37" s="17"/>
+      <c r="C37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D37" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="G37" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H37" s="12"/>
+      <c r="I37" s="12"/>
+      <c r="J37" s="12"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B38" s="17"/>
+      <c r="C38" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" s="12"/>
+      <c r="E38" s="12"/>
+      <c r="F38" s="12"/>
+      <c r="G38" s="12"/>
+      <c r="H38" s="12"/>
+      <c r="I38" s="12"/>
+      <c r="J38" s="12"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B39" s="17"/>
+      <c r="C39" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D39" s="12"/>
+      <c r="E39" s="12"/>
+      <c r="F39" s="12"/>
+      <c r="G39" s="12"/>
+      <c r="H39" s="12"/>
+      <c r="I39" s="12"/>
+      <c r="J39" s="12"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B40" s="17"/>
+      <c r="C40" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D40" s="12"/>
+      <c r="E40" s="12"/>
+      <c r="F40" s="12"/>
+      <c r="G40" s="12"/>
+      <c r="H40" s="12"/>
+      <c r="I40" s="12"/>
+      <c r="J40" s="12"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B41" s="17"/>
+      <c r="C41" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D41" s="12"/>
+      <c r="E41" s="12"/>
+      <c r="F41" s="12"/>
+      <c r="G41" s="12"/>
+      <c r="H41" s="12"/>
+      <c r="I41" s="12"/>
+      <c r="J41" s="12"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B42" s="17"/>
+      <c r="C42" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D42" s="12"/>
+      <c r="E42" s="12"/>
+      <c r="F42" s="12"/>
+      <c r="G42" s="12"/>
+      <c r="H42" s="12"/>
+      <c r="I42" s="12"/>
+      <c r="J42" s="12"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B43" s="17"/>
+      <c r="C43" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D43" s="12"/>
+      <c r="E43" s="12"/>
+      <c r="F43" s="12"/>
+      <c r="G43" s="12"/>
+      <c r="H43" s="12"/>
+      <c r="I43" s="12"/>
+      <c r="J43" s="12"/>
+    </row>
+    <row r="44" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B44" s="17"/>
+      <c r="C44" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D44" s="12"/>
+      <c r="E44" s="12"/>
+      <c r="F44" s="12"/>
+      <c r="G44" s="12"/>
+      <c r="H44" s="12"/>
+      <c r="I44" s="12"/>
+      <c r="J44" s="12"/>
+    </row>
+    <row r="45" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B45" s="17"/>
+      <c r="C45" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D45" s="12"/>
+      <c r="E45" s="12"/>
+      <c r="F45" s="12"/>
+      <c r="G45" s="12"/>
+      <c r="H45" s="12"/>
+      <c r="I45" s="12"/>
+      <c r="J45" s="12"/>
+    </row>
+    <row r="46" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B46" s="17"/>
+      <c r="C46" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46" s="12"/>
+      <c r="E46" s="12"/>
+      <c r="F46" s="12"/>
+      <c r="G46" s="12"/>
+      <c r="H46" s="12"/>
+      <c r="I46" s="12"/>
+      <c r="J46" s="12"/>
+    </row>
+    <row r="47" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B48" s="18" t="s">
+        <v>0</v>
+      </c>
+      <c r="C48" s="19" t="s">
+        <v>1</v>
+      </c>
+      <c r="D48" s="17" t="s">
+        <v>7</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17"/>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B49" s="16"/>
+      <c r="C49" s="16"/>
+      <c r="D49" s="12">
+        <v>-2017.2729999999999</v>
+      </c>
+      <c r="E49" s="12">
+        <v>2016</v>
+      </c>
+      <c r="F49" s="12">
+        <v>2015</v>
+      </c>
+      <c r="G49" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="H49" s="12">
+        <v>-2014.8</v>
+      </c>
+      <c r="I49" s="12">
+        <v>2013</v>
+      </c>
+      <c r="J49" s="12">
+        <v>2012</v>
+      </c>
+    </row>
+    <row r="50" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B50" s="16">
+        <v>30</v>
+      </c>
+      <c r="C50" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="D50" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="H50" s="11"/>
+      <c r="I50" s="11"/>
+      <c r="J50" s="11"/>
+    </row>
+    <row r="51" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B51" s="17"/>
+      <c r="C51" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="D51" s="10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="G51" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H51" s="12"/>
+      <c r="I51" s="12"/>
+      <c r="J51" s="12"/>
+    </row>
+    <row r="52" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B52" s="17"/>
+      <c r="C52" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D52" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F52" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="G52" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="H52" s="12"/>
+      <c r="I52" s="12"/>
+      <c r="J52" s="12"/>
+    </row>
+    <row r="53" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B53" s="17"/>
+      <c r="C53" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
+      <c r="F53" s="12"/>
+      <c r="G53" s="12"/>
+      <c r="H53" s="12"/>
+      <c r="I53" s="12"/>
+      <c r="J53" s="12"/>
+    </row>
+    <row r="54" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B54" s="17"/>
+      <c r="C54" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
+      <c r="F54" s="12"/>
+      <c r="G54" s="12"/>
+      <c r="H54" s="12"/>
+      <c r="I54" s="12"/>
+      <c r="J54" s="12"/>
+    </row>
+    <row r="55" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B55" s="17"/>
+      <c r="C55" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="D55" s="12"/>
+      <c r="E55" s="12"/>
+      <c r="F55" s="12"/>
+      <c r="G55" s="12"/>
+      <c r="H55" s="12"/>
+      <c r="I55" s="12"/>
+      <c r="J55" s="12"/>
+    </row>
+    <row r="56" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B56" s="17"/>
+      <c r="C56" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D56" s="12"/>
+      <c r="E56" s="12"/>
+      <c r="F56" s="12"/>
+      <c r="G56" s="12"/>
+      <c r="H56" s="12"/>
+      <c r="I56" s="12"/>
+      <c r="J56" s="12"/>
+    </row>
+    <row r="57" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B57" s="17"/>
+      <c r="C57" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="D57" s="12"/>
+      <c r="E57" s="12"/>
+      <c r="F57" s="12"/>
+      <c r="G57" s="12"/>
+      <c r="H57" s="12"/>
+      <c r="I57" s="12"/>
+      <c r="J57" s="12"/>
+    </row>
+    <row r="58" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B58" s="17"/>
+      <c r="C58" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D58" s="12"/>
+      <c r="E58" s="12"/>
+      <c r="F58" s="12"/>
+      <c r="G58" s="12"/>
+      <c r="H58" s="12"/>
+      <c r="I58" s="12"/>
+      <c r="J58" s="12"/>
+    </row>
+    <row r="59" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B59" s="17"/>
+      <c r="C59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="D59" s="12"/>
+      <c r="E59" s="12"/>
+      <c r="F59" s="12"/>
+      <c r="G59" s="12"/>
+      <c r="H59" s="12"/>
+      <c r="I59" s="12"/>
+      <c r="J59" s="12"/>
+    </row>
+    <row r="60" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B60" s="17"/>
+      <c r="C60" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+    </row>
+    <row r="61" spans="2:10" x14ac:dyDescent="0.3">
+      <c r="B61" s="17"/>
+      <c r="C61" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D61" s="12"/>
+      <c r="E61" s="12"/>
+      <c r="F61" s="12"/>
+      <c r="G61" s="12"/>
+      <c r="H61" s="12"/>
+      <c r="I61" s="12"/>
+      <c r="J61" s="12"/>
     </row>
   </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="B1:B2"/>
-    <mergeCell ref="C1:C2"/>
-    <mergeCell ref="J1:J2"/>
-    <mergeCell ref="B15:J15"/>
-    <mergeCell ref="B16:B27"/>
-    <mergeCell ref="D1:I1"/>
-    <mergeCell ref="B3:B14"/>
+  <mergeCells count="18">
+    <mergeCell ref="E1:H1"/>
+    <mergeCell ref="B3:B4"/>
+    <mergeCell ref="C3:C4"/>
+    <mergeCell ref="B17:J17"/>
+    <mergeCell ref="B20:B31"/>
+    <mergeCell ref="D3:J3"/>
+    <mergeCell ref="B5:B16"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:J18"/>
+    <mergeCell ref="B50:B61"/>
+    <mergeCell ref="B35:B46"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:J33"/>
+    <mergeCell ref="B48:B49"/>
+    <mergeCell ref="C48:C49"/>
+    <mergeCell ref="D48:J48"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
